--- a/src/test/resources/docs/integTest/Suppl. & Ch. Integ Testing.xlsx
+++ b/src/test/resources/docs/integTest/Suppl. & Ch. Integ Testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shashank.goel\IdeaProjects\P2DRegressionSuite\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shashank.goel\IdeaProjects\P2DRegressionSuite\src\test\resources\docs\integTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="159">
   <si>
     <t>Test Case</t>
   </si>
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,7 +2309,12 @@
       <c r="G54" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="J54" s="4"/>
+      <c r="J54" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -2462,7 +2467,9 @@
       <c r="G63" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="J63" s="4"/>
+      <c r="J63" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">

--- a/src/test/resources/docs/integTest/Suppl. & Ch. Integ Testing.xlsx
+++ b/src/test/resources/docs/integTest/Suppl. & Ch. Integ Testing.xlsx
@@ -1313,7 +1313,7 @@
   <dimension ref="A4:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
